--- a/data_pencairan1.xlsx
+++ b/data_pencairan1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Downloads\ProjectMap-master\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF393F84-62B7-4E2D-A666-023535517543}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A096513-4B60-4062-99CF-323635F7E60B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{54E22A41-8FC8-4C9D-8F0D-924CB0D9AAAD}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="50">
   <si>
     <t>BALI</t>
   </si>
@@ -171,6 +171,21 @@
   </si>
   <si>
     <t>Reject</t>
+  </si>
+  <si>
+    <t>total_ktp_reject</t>
+  </si>
+  <si>
+    <t>total_lepas_ktp_reject</t>
+  </si>
+  <si>
+    <t>total_usr_reject</t>
+  </si>
+  <si>
+    <t>total_lepas_usr_reject</t>
+  </si>
+  <si>
+    <t>total_os_loan_created</t>
   </si>
 </sst>
 </file>
@@ -227,9 +242,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -546,10 +564,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7817EA4E-9468-49B4-92AC-3A3CB21195C9}">
-  <dimension ref="A1:J35"/>
+  <dimension ref="A1:O35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="M1" sqref="M1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -557,15 +575,17 @@
     <col min="1" max="1" width="24" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="22.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="18" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="29.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="21.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="29.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="29.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="21.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="29.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="14" width="29.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>31</v>
       </c>
@@ -576,28 +596,43 @@
         <v>32</v>
       </c>
       <c r="D1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E1" t="s">
         <v>38</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>39</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>40</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>41</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>42</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>43</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
+        <v>45</v>
+      </c>
+      <c r="L1" t="s">
+        <v>46</v>
+      </c>
+      <c r="M1" t="s">
+        <v>47</v>
+      </c>
+      <c r="N1" t="s">
+        <v>48</v>
+      </c>
+      <c r="O1" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>33</v>
       </c>
@@ -608,11 +643,11 @@
         <v>26</v>
       </c>
       <c r="D2" s="1">
+        <v>122958227</v>
+      </c>
+      <c r="E2" s="1">
         <v>38</v>
       </c>
-      <c r="E2" s="1">
-        <v>0</v>
-      </c>
       <c r="F2" s="1">
         <v>0</v>
       </c>
@@ -623,14 +658,28 @@
         <v>0</v>
       </c>
       <c r="I2" s="1">
+        <v>0</v>
+      </c>
+      <c r="J2" s="1">
         <v>14</v>
       </c>
-      <c r="J2">
-        <f>SUM(C2:I2)</f>
+      <c r="K2" s="2">
+        <v>1</v>
+      </c>
+      <c r="L2" s="1">
+        <v>5161097</v>
+      </c>
+      <c r="M2" s="1">
+        <v>11</v>
+      </c>
+      <c r="N2" s="1">
+        <v>42508835</v>
+      </c>
+      <c r="O2">
         <v>78</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>33</v>
       </c>
@@ -641,29 +690,43 @@
         <v>202</v>
       </c>
       <c r="D3" s="1">
+        <v>1033976033</v>
+      </c>
+      <c r="E3" s="1">
         <v>646</v>
       </c>
-      <c r="E3" s="1">
+      <c r="F3" s="1">
         <v>4</v>
       </c>
-      <c r="F3" s="1">
+      <c r="G3" s="1">
         <v>6</v>
       </c>
-      <c r="G3" s="1">
+      <c r="H3" s="1">
         <v>5</v>
       </c>
-      <c r="H3" s="1">
+      <c r="I3" s="1">
         <v>3</v>
       </c>
-      <c r="I3" s="1">
+      <c r="J3" s="1">
         <v>58</v>
       </c>
-      <c r="J3">
-        <f t="shared" ref="J3:J35" si="0">SUM(C3:I3)</f>
+      <c r="K3" s="2">
+        <v>2</v>
+      </c>
+      <c r="L3" s="1">
+        <v>0</v>
+      </c>
+      <c r="M3" s="1">
+        <v>52</v>
+      </c>
+      <c r="N3" s="1">
+        <v>283377041</v>
+      </c>
+      <c r="O3">
         <v>924</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>33</v>
       </c>
@@ -674,29 +737,43 @@
         <v>37</v>
       </c>
       <c r="D4" s="1">
+        <v>245825817</v>
+      </c>
+      <c r="E4" s="1">
         <v>31</v>
       </c>
-      <c r="E4" s="1">
-        <v>0</v>
-      </c>
       <c r="F4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G4" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I4" s="1">
         <v>1</v>
       </c>
-      <c r="J4">
-        <f t="shared" si="0"/>
+      <c r="J4" s="1">
+        <v>1</v>
+      </c>
+      <c r="K4" s="2">
+        <v>1</v>
+      </c>
+      <c r="L4" s="1">
+        <v>0</v>
+      </c>
+      <c r="M4" s="1">
+        <v>6</v>
+      </c>
+      <c r="N4" s="1">
+        <v>24808253</v>
+      </c>
+      <c r="O4">
         <v>71</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>33</v>
       </c>
@@ -707,29 +784,43 @@
         <v>21</v>
       </c>
       <c r="D5" s="1">
+        <v>48553417</v>
+      </c>
+      <c r="E5" s="1">
         <v>44</v>
       </c>
-      <c r="E5" s="1">
-        <v>2</v>
-      </c>
       <c r="F5" s="1">
+        <v>2</v>
+      </c>
+      <c r="G5" s="1">
         <v>3</v>
       </c>
-      <c r="G5" s="1">
-        <v>0</v>
-      </c>
       <c r="H5" s="1">
         <v>0</v>
       </c>
       <c r="I5" s="1">
+        <v>0</v>
+      </c>
+      <c r="J5" s="1">
         <v>25</v>
       </c>
-      <c r="J5">
-        <f t="shared" si="0"/>
+      <c r="K5" s="2">
+        <v>0</v>
+      </c>
+      <c r="L5" s="1">
+        <v>0</v>
+      </c>
+      <c r="M5" s="1">
+        <v>10</v>
+      </c>
+      <c r="N5" s="1">
+        <v>27357637</v>
+      </c>
+      <c r="O5">
         <v>95</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>33</v>
       </c>
@@ -740,29 +831,43 @@
         <v>375</v>
       </c>
       <c r="D6" s="1">
+        <v>2065813443</v>
+      </c>
+      <c r="E6" s="1">
         <v>1352</v>
       </c>
-      <c r="E6" s="1">
+      <c r="F6" s="1">
         <v>5</v>
       </c>
-      <c r="F6" s="1">
+      <c r="G6" s="1">
         <v>17</v>
       </c>
-      <c r="G6" s="1">
+      <c r="H6" s="1">
         <v>9</v>
       </c>
-      <c r="H6" s="1">
+      <c r="I6" s="1">
         <v>15</v>
       </c>
-      <c r="I6" s="1">
+      <c r="J6" s="1">
         <v>181</v>
       </c>
-      <c r="J6">
-        <f t="shared" si="0"/>
+      <c r="K6" s="2">
+        <v>5</v>
+      </c>
+      <c r="L6" s="1">
+        <v>1206871</v>
+      </c>
+      <c r="M6" s="1">
+        <v>109</v>
+      </c>
+      <c r="N6" s="1">
+        <v>463190604</v>
+      </c>
+      <c r="O6">
         <v>1954</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>33</v>
       </c>
@@ -773,29 +878,43 @@
         <v>47</v>
       </c>
       <c r="D7" s="1">
+        <v>241760698</v>
+      </c>
+      <c r="E7" s="1">
         <v>53</v>
       </c>
-      <c r="E7" s="1">
-        <v>0</v>
-      </c>
       <c r="F7" s="1">
+        <v>0</v>
+      </c>
+      <c r="G7" s="1">
         <v>3</v>
       </c>
-      <c r="G7" s="1">
-        <v>0</v>
-      </c>
       <c r="H7" s="1">
+        <v>0</v>
+      </c>
+      <c r="I7" s="1">
         <v>3</v>
       </c>
-      <c r="I7" s="1">
+      <c r="J7" s="1">
         <v>12</v>
       </c>
-      <c r="J7">
-        <f t="shared" si="0"/>
+      <c r="K7" s="2">
+        <v>1</v>
+      </c>
+      <c r="L7" s="1">
+        <v>0</v>
+      </c>
+      <c r="M7" s="1">
+        <v>12</v>
+      </c>
+      <c r="N7" s="1">
+        <v>62716344</v>
+      </c>
+      <c r="O7">
         <v>118</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>33</v>
       </c>
@@ -806,29 +925,43 @@
         <v>127</v>
       </c>
       <c r="D8" s="1">
+        <v>798060460</v>
+      </c>
+      <c r="E8" s="1">
         <v>120</v>
       </c>
-      <c r="E8" s="1">
-        <v>1</v>
-      </c>
       <c r="F8" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G8" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H8" s="1">
         <v>3</v>
       </c>
       <c r="I8" s="1">
+        <v>3</v>
+      </c>
+      <c r="J8" s="1">
         <v>19</v>
       </c>
-      <c r="J8">
-        <f t="shared" si="0"/>
+      <c r="K8" s="2">
+        <v>2</v>
+      </c>
+      <c r="L8" s="1">
+        <v>8260197</v>
+      </c>
+      <c r="M8" s="1">
+        <v>19</v>
+      </c>
+      <c r="N8" s="1">
+        <v>78871770</v>
+      </c>
+      <c r="O8">
         <v>275</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>33</v>
       </c>
@@ -839,29 +972,43 @@
         <v>438</v>
       </c>
       <c r="D9" s="1">
+        <v>1940832600</v>
+      </c>
+      <c r="E9" s="1">
         <v>1162</v>
       </c>
-      <c r="E9" s="1">
+      <c r="F9" s="1">
         <v>4</v>
       </c>
-      <c r="F9" s="1">
+      <c r="G9" s="1">
         <v>17</v>
       </c>
-      <c r="G9" s="1">
+      <c r="H9" s="1">
         <v>8</v>
       </c>
-      <c r="H9" s="1">
+      <c r="I9" s="1">
         <v>24</v>
       </c>
-      <c r="I9" s="1">
+      <c r="J9" s="1">
         <v>148</v>
       </c>
-      <c r="J9">
-        <f t="shared" si="0"/>
+      <c r="K9" s="2">
+        <v>2</v>
+      </c>
+      <c r="L9" s="1">
+        <v>7920898</v>
+      </c>
+      <c r="M9" s="1">
+        <v>103</v>
+      </c>
+      <c r="N9" s="1">
+        <v>407044078</v>
+      </c>
+      <c r="O9">
         <v>1801</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>33</v>
       </c>
@@ -872,29 +1019,43 @@
         <v>227</v>
       </c>
       <c r="D10" s="1">
+        <v>1084347574</v>
+      </c>
+      <c r="E10" s="1">
         <v>347</v>
       </c>
-      <c r="E10" s="1">
+      <c r="F10" s="1">
         <v>3</v>
       </c>
-      <c r="F10" s="1">
+      <c r="G10" s="1">
         <v>6</v>
       </c>
-      <c r="G10" s="1">
+      <c r="H10" s="1">
         <v>5</v>
       </c>
-      <c r="H10" s="1">
+      <c r="I10" s="1">
         <v>10</v>
       </c>
-      <c r="I10" s="1">
+      <c r="J10" s="1">
         <v>97</v>
       </c>
-      <c r="J10">
-        <f t="shared" si="0"/>
+      <c r="K10" s="2">
+        <v>2</v>
+      </c>
+      <c r="L10" s="1">
+        <v>3889494</v>
+      </c>
+      <c r="M10" s="1">
+        <v>57</v>
+      </c>
+      <c r="N10" s="1">
+        <v>208246537</v>
+      </c>
+      <c r="O10">
         <v>695</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>33</v>
       </c>
@@ -905,29 +1066,43 @@
         <v>324</v>
       </c>
       <c r="D11" s="1">
+        <v>1412667099</v>
+      </c>
+      <c r="E11" s="1">
         <v>521</v>
       </c>
-      <c r="E11" s="1">
+      <c r="F11" s="1">
         <v>3</v>
       </c>
-      <c r="F11" s="1">
+      <c r="G11" s="1">
         <v>8</v>
       </c>
-      <c r="G11" s="1">
+      <c r="H11" s="1">
         <v>6</v>
       </c>
-      <c r="H11" s="1">
+      <c r="I11" s="1">
         <v>10</v>
       </c>
-      <c r="I11" s="1">
+      <c r="J11" s="1">
         <v>97</v>
       </c>
-      <c r="J11">
-        <f t="shared" si="0"/>
+      <c r="K11" s="2">
+        <v>5</v>
+      </c>
+      <c r="L11" s="1">
+        <v>30248826</v>
+      </c>
+      <c r="M11" s="1">
+        <v>103</v>
+      </c>
+      <c r="N11" s="1">
+        <v>392072814</v>
+      </c>
+      <c r="O11">
         <v>969</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>33</v>
       </c>
@@ -938,29 +1113,43 @@
         <v>239</v>
       </c>
       <c r="D12" s="1">
+        <v>2379162969</v>
+      </c>
+      <c r="E12" s="1">
         <v>141</v>
       </c>
-      <c r="E12" s="1">
-        <v>1</v>
-      </c>
       <c r="F12" s="1">
+        <v>1</v>
+      </c>
+      <c r="G12" s="1">
         <v>3</v>
       </c>
-      <c r="G12" s="1">
+      <c r="H12" s="1">
         <v>4</v>
       </c>
-      <c r="H12" s="1">
-        <v>2</v>
-      </c>
       <c r="I12" s="1">
+        <v>2</v>
+      </c>
+      <c r="J12" s="1">
         <v>23</v>
       </c>
-      <c r="J12">
-        <f t="shared" si="0"/>
+      <c r="K12" s="2">
+        <v>5</v>
+      </c>
+      <c r="L12" s="1">
+        <v>22478328</v>
+      </c>
+      <c r="M12" s="1">
+        <v>26</v>
+      </c>
+      <c r="N12" s="1">
+        <v>160893265</v>
+      </c>
+      <c r="O12">
         <v>413</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>33</v>
       </c>
@@ -971,13 +1160,13 @@
         <v>58</v>
       </c>
       <c r="D13" s="1">
+        <v>351727958</v>
+      </c>
+      <c r="E13" s="1">
         <v>100</v>
       </c>
-      <c r="E13" s="1">
-        <v>0</v>
-      </c>
       <c r="F13" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G13" s="1">
         <v>2</v>
@@ -986,14 +1175,28 @@
         <v>2</v>
       </c>
       <c r="I13" s="1">
+        <v>2</v>
+      </c>
+      <c r="J13" s="1">
         <v>22</v>
       </c>
-      <c r="J13">
-        <f t="shared" si="0"/>
+      <c r="K13" s="2">
+        <v>1</v>
+      </c>
+      <c r="L13" s="1">
+        <v>0</v>
+      </c>
+      <c r="M13" s="1">
+        <v>9</v>
+      </c>
+      <c r="N13" s="1">
+        <v>35038037</v>
+      </c>
+      <c r="O13">
         <v>186</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>33</v>
       </c>
@@ -1004,29 +1207,43 @@
         <v>238</v>
       </c>
       <c r="D14" s="1">
+        <v>2669443365</v>
+      </c>
+      <c r="E14" s="1">
         <v>193</v>
       </c>
-      <c r="E14" s="1">
-        <v>1</v>
-      </c>
       <c r="F14" s="1">
+        <v>1</v>
+      </c>
+      <c r="G14" s="1">
         <v>11</v>
       </c>
-      <c r="G14" s="1">
+      <c r="H14" s="1">
         <v>7</v>
       </c>
-      <c r="H14" s="1">
+      <c r="I14" s="1">
         <v>5</v>
       </c>
-      <c r="I14" s="1">
+      <c r="J14" s="1">
         <v>13</v>
       </c>
-      <c r="J14">
-        <f t="shared" si="0"/>
+      <c r="K14" s="2">
+        <v>7</v>
+      </c>
+      <c r="L14" s="1">
+        <v>43720371</v>
+      </c>
+      <c r="M14" s="1">
+        <v>22</v>
+      </c>
+      <c r="N14" s="1">
+        <v>80389141</v>
+      </c>
+      <c r="O14">
         <v>468</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>33</v>
       </c>
@@ -1037,29 +1254,43 @@
         <v>1052</v>
       </c>
       <c r="D15" s="1">
+        <v>12938725449</v>
+      </c>
+      <c r="E15" s="1">
         <v>560</v>
       </c>
-      <c r="E15" s="1">
-        <v>2</v>
-      </c>
       <c r="F15" s="1">
+        <v>2</v>
+      </c>
+      <c r="G15" s="1">
         <v>24</v>
       </c>
-      <c r="G15" s="1">
+      <c r="H15" s="1">
         <v>20</v>
       </c>
-      <c r="H15" s="1">
+      <c r="I15" s="1">
         <v>4</v>
       </c>
-      <c r="I15" s="1">
+      <c r="J15" s="1">
         <v>23</v>
       </c>
-      <c r="J15">
-        <f t="shared" si="0"/>
+      <c r="K15" s="2">
+        <v>21</v>
+      </c>
+      <c r="L15" s="1">
+        <v>70551341</v>
+      </c>
+      <c r="M15" s="1">
+        <v>106</v>
+      </c>
+      <c r="N15" s="1">
+        <v>845159294</v>
+      </c>
+      <c r="O15">
         <v>1685</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>33</v>
       </c>
@@ -1070,29 +1301,43 @@
         <v>135</v>
       </c>
       <c r="D16" s="1">
+        <v>1307908241</v>
+      </c>
+      <c r="E16" s="1">
         <v>73</v>
       </c>
-      <c r="E16" s="1">
-        <v>0</v>
-      </c>
       <c r="F16" s="1">
+        <v>0</v>
+      </c>
+      <c r="G16" s="1">
         <v>3</v>
       </c>
-      <c r="G16" s="1">
-        <v>2</v>
-      </c>
       <c r="H16" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I16" s="1">
+        <v>1</v>
+      </c>
+      <c r="J16" s="1">
         <v>3</v>
       </c>
-      <c r="J16">
-        <f t="shared" si="0"/>
+      <c r="K16" s="2">
+        <v>10</v>
+      </c>
+      <c r="L16" s="1">
+        <v>52178108</v>
+      </c>
+      <c r="M16" s="1">
+        <v>13</v>
+      </c>
+      <c r="N16" s="1">
+        <v>98343904</v>
+      </c>
+      <c r="O16">
         <v>217</v>
       </c>
     </row>
-    <row r="17" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>33</v>
       </c>
@@ -1103,29 +1348,43 @@
         <v>18</v>
       </c>
       <c r="D17" s="1">
+        <v>118025039</v>
+      </c>
+      <c r="E17" s="1">
         <v>44</v>
       </c>
-      <c r="E17" s="1">
-        <v>0</v>
-      </c>
       <c r="F17" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G17" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H17" s="1">
         <v>0</v>
       </c>
       <c r="I17" s="1">
+        <v>0</v>
+      </c>
+      <c r="J17" s="1">
         <v>8</v>
       </c>
-      <c r="J17">
-        <f t="shared" si="0"/>
+      <c r="K17" s="2">
+        <v>0</v>
+      </c>
+      <c r="L17" s="1">
+        <v>0</v>
+      </c>
+      <c r="M17" s="1">
+        <v>5</v>
+      </c>
+      <c r="N17" s="1">
+        <v>25174408</v>
+      </c>
+      <c r="O17">
         <v>71</v>
       </c>
     </row>
-    <row r="18" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>33</v>
       </c>
@@ -1136,29 +1395,43 @@
         <v>48</v>
       </c>
       <c r="D18" s="1">
+        <v>239749764</v>
+      </c>
+      <c r="E18" s="1">
         <v>70</v>
       </c>
-      <c r="E18" s="1">
-        <v>0</v>
-      </c>
       <c r="F18" s="1">
         <v>0</v>
       </c>
       <c r="G18" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H18" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I18" s="1">
+        <v>1</v>
+      </c>
+      <c r="J18" s="1">
         <v>22</v>
       </c>
-      <c r="J18">
-        <f t="shared" si="0"/>
+      <c r="K18" s="2">
+        <v>2</v>
+      </c>
+      <c r="L18" s="1">
+        <v>7083716</v>
+      </c>
+      <c r="M18" s="1">
+        <v>7</v>
+      </c>
+      <c r="N18" s="1">
+        <v>30962186</v>
+      </c>
+      <c r="O18">
         <v>143</v>
       </c>
     </row>
-    <row r="19" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>33</v>
       </c>
@@ -1169,29 +1442,43 @@
         <v>72</v>
       </c>
       <c r="D19" s="1">
+        <v>413561371</v>
+      </c>
+      <c r="E19" s="1">
         <v>118</v>
       </c>
-      <c r="E19" s="1">
-        <v>1</v>
-      </c>
       <c r="F19" s="1">
+        <v>1</v>
+      </c>
+      <c r="G19" s="1">
         <v>3</v>
       </c>
-      <c r="G19" s="1">
-        <v>0</v>
-      </c>
       <c r="H19" s="1">
+        <v>0</v>
+      </c>
+      <c r="I19" s="1">
         <v>3</v>
       </c>
-      <c r="I19" s="1">
+      <c r="J19" s="1">
         <v>21</v>
       </c>
-      <c r="J19">
-        <f t="shared" si="0"/>
+      <c r="K19" s="2">
+        <v>0</v>
+      </c>
+      <c r="L19" s="1">
+        <v>0</v>
+      </c>
+      <c r="M19" s="1">
+        <v>19</v>
+      </c>
+      <c r="N19" s="1">
+        <v>53371741</v>
+      </c>
+      <c r="O19">
         <v>218</v>
       </c>
     </row>
-    <row r="20" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>33</v>
       </c>
@@ -1202,29 +1489,43 @@
         <v>22</v>
       </c>
       <c r="D20" s="1">
+        <v>159069081</v>
+      </c>
+      <c r="E20" s="1">
         <v>29</v>
       </c>
-      <c r="E20" s="1">
-        <v>0</v>
-      </c>
       <c r="F20" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G20" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H20" s="1">
         <v>0</v>
       </c>
       <c r="I20" s="1">
+        <v>0</v>
+      </c>
+      <c r="J20" s="1">
         <v>9</v>
       </c>
-      <c r="J20">
-        <f t="shared" si="0"/>
+      <c r="K20" s="2">
+        <v>0</v>
+      </c>
+      <c r="L20" s="1">
+        <v>0</v>
+      </c>
+      <c r="M20" s="1">
+        <v>6</v>
+      </c>
+      <c r="N20" s="1">
+        <v>26836821</v>
+      </c>
+      <c r="O20">
         <v>61</v>
       </c>
     </row>
-    <row r="21" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>33</v>
       </c>
@@ -1235,29 +1536,43 @@
         <v>1974</v>
       </c>
       <c r="D21" s="1">
+        <v>40739516773</v>
+      </c>
+      <c r="E21" s="1">
         <v>1190</v>
       </c>
-      <c r="E21" s="1">
+      <c r="F21" s="1">
         <v>5</v>
       </c>
-      <c r="F21" s="1">
+      <c r="G21" s="1">
         <v>48</v>
       </c>
-      <c r="G21" s="1">
+      <c r="H21" s="1">
         <v>49</v>
       </c>
-      <c r="H21" s="1">
+      <c r="I21" s="1">
         <v>3</v>
       </c>
-      <c r="I21" s="1">
+      <c r="J21" s="1">
         <v>88</v>
       </c>
-      <c r="J21">
-        <f t="shared" si="0"/>
+      <c r="K21" s="2">
+        <v>23</v>
+      </c>
+      <c r="L21" s="1">
+        <v>17172803</v>
+      </c>
+      <c r="M21" s="1">
+        <v>92</v>
+      </c>
+      <c r="N21" s="1">
+        <v>259505332</v>
+      </c>
+      <c r="O21">
         <v>3357</v>
       </c>
     </row>
-    <row r="22" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>33</v>
       </c>
@@ -1268,10 +1583,10 @@
         <v>4</v>
       </c>
       <c r="D22" s="1">
-        <v>2</v>
+        <v>14439838</v>
       </c>
       <c r="E22" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F22" s="1">
         <v>0</v>
@@ -1285,12 +1600,26 @@
       <c r="I22" s="1">
         <v>0</v>
       </c>
-      <c r="J22">
-        <f t="shared" si="0"/>
+      <c r="J22" s="1">
+        <v>0</v>
+      </c>
+      <c r="K22" s="2">
+        <v>0</v>
+      </c>
+      <c r="L22" s="1">
+        <v>0</v>
+      </c>
+      <c r="M22" s="1">
+        <v>3</v>
+      </c>
+      <c r="N22" s="1">
+        <v>7112223</v>
+      </c>
+      <c r="O22">
         <v>6</v>
       </c>
     </row>
-    <row r="23" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>33</v>
       </c>
@@ -1301,29 +1630,43 @@
         <v>35</v>
       </c>
       <c r="D23" s="1">
+        <v>87419407</v>
+      </c>
+      <c r="E23" s="1">
         <v>42</v>
       </c>
-      <c r="E23" s="1">
-        <v>0</v>
-      </c>
       <c r="F23" s="1">
         <v>0</v>
       </c>
       <c r="G23" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H23" s="1">
+        <v>2</v>
+      </c>
+      <c r="I23" s="1">
         <v>4</v>
       </c>
-      <c r="I23" s="1">
+      <c r="J23" s="1">
         <v>15</v>
       </c>
-      <c r="J23">
-        <f t="shared" si="0"/>
+      <c r="K23" s="2">
+        <v>0</v>
+      </c>
+      <c r="L23" s="1">
+        <v>0</v>
+      </c>
+      <c r="M23" s="1">
+        <v>5</v>
+      </c>
+      <c r="N23" s="1">
+        <v>6694028</v>
+      </c>
+      <c r="O23">
         <v>98</v>
       </c>
     </row>
-    <row r="24" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>33</v>
       </c>
@@ -1334,29 +1677,43 @@
         <v>60</v>
       </c>
       <c r="D24" s="1">
+        <v>234662644</v>
+      </c>
+      <c r="E24" s="1">
         <v>40</v>
       </c>
-      <c r="E24" s="1">
-        <v>2</v>
-      </c>
       <c r="F24" s="1">
         <v>2</v>
       </c>
       <c r="G24" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H24" s="1">
+        <v>1</v>
+      </c>
+      <c r="I24" s="1">
         <v>3</v>
       </c>
-      <c r="I24" s="1">
+      <c r="J24" s="1">
         <v>11</v>
       </c>
-      <c r="J24">
-        <f t="shared" si="0"/>
+      <c r="K24" s="2">
+        <v>0</v>
+      </c>
+      <c r="L24" s="1">
+        <v>0</v>
+      </c>
+      <c r="M24" s="1">
+        <v>33</v>
+      </c>
+      <c r="N24" s="1">
+        <v>115605055</v>
+      </c>
+      <c r="O24">
         <v>119</v>
       </c>
     </row>
-    <row r="25" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>33</v>
       </c>
@@ -1367,29 +1724,43 @@
         <v>134</v>
       </c>
       <c r="D25" s="1">
+        <v>1631384628</v>
+      </c>
+      <c r="E25" s="1">
         <v>84</v>
       </c>
-      <c r="E25" s="1">
-        <v>2</v>
-      </c>
       <c r="F25" s="1">
         <v>2</v>
       </c>
       <c r="G25" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H25" s="1">
+        <v>1</v>
+      </c>
+      <c r="I25" s="1">
         <v>6</v>
       </c>
-      <c r="I25" s="1">
+      <c r="J25" s="1">
         <v>20</v>
       </c>
-      <c r="J25">
-        <f t="shared" si="0"/>
+      <c r="K25" s="2">
+        <v>6</v>
+      </c>
+      <c r="L25" s="1">
+        <v>52809193</v>
+      </c>
+      <c r="M25" s="1">
+        <v>18</v>
+      </c>
+      <c r="N25" s="1">
+        <v>155627408</v>
+      </c>
+      <c r="O25">
         <v>249</v>
       </c>
     </row>
-    <row r="26" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>33</v>
       </c>
@@ -1400,29 +1771,43 @@
         <v>119</v>
       </c>
       <c r="D26" s="1">
+        <v>593260907</v>
+      </c>
+      <c r="E26" s="1">
         <v>39</v>
       </c>
-      <c r="E26" s="1">
-        <v>1</v>
-      </c>
       <c r="F26" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G26" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H26" s="1">
+        <v>1</v>
+      </c>
+      <c r="I26" s="1">
         <v>6</v>
       </c>
-      <c r="I26" s="1">
+      <c r="J26" s="1">
         <v>12</v>
       </c>
-      <c r="J26">
-        <f t="shared" si="0"/>
+      <c r="K26" s="2">
+        <v>6</v>
+      </c>
+      <c r="L26" s="1">
+        <v>17212357</v>
+      </c>
+      <c r="M26" s="1">
+        <v>7</v>
+      </c>
+      <c r="N26" s="1">
+        <v>31712368</v>
+      </c>
+      <c r="O26">
         <v>178</v>
       </c>
     </row>
-    <row r="27" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>33</v>
       </c>
@@ -1433,29 +1818,43 @@
         <v>700</v>
       </c>
       <c r="D27" s="1">
+        <v>5447384727</v>
+      </c>
+      <c r="E27" s="1">
         <v>633</v>
       </c>
-      <c r="E27" s="1">
+      <c r="F27" s="1">
         <v>3</v>
       </c>
-      <c r="F27" s="1">
+      <c r="G27" s="1">
         <v>15</v>
       </c>
-      <c r="G27" s="1">
+      <c r="H27" s="1">
         <v>14</v>
       </c>
-      <c r="H27" s="1">
+      <c r="I27" s="1">
         <v>17</v>
       </c>
-      <c r="I27" s="1">
+      <c r="J27" s="1">
         <v>52</v>
       </c>
-      <c r="J27">
-        <f t="shared" si="0"/>
+      <c r="K27" s="2">
+        <v>9</v>
+      </c>
+      <c r="L27" s="1">
+        <v>40275683</v>
+      </c>
+      <c r="M27" s="1">
+        <v>127</v>
+      </c>
+      <c r="N27" s="1">
+        <v>740421775</v>
+      </c>
+      <c r="O27">
         <v>1434</v>
       </c>
     </row>
-    <row r="28" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>33</v>
       </c>
@@ -1466,13 +1865,13 @@
         <v>18</v>
       </c>
       <c r="D28" s="1">
+        <v>82961187</v>
+      </c>
+      <c r="E28" s="1">
         <v>19</v>
       </c>
-      <c r="E28" s="1">
-        <v>1</v>
-      </c>
       <c r="F28" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G28" s="1">
         <v>0</v>
@@ -1481,14 +1880,28 @@
         <v>0</v>
       </c>
       <c r="I28" s="1">
-        <v>2</v>
-      </c>
-      <c r="J28">
-        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J28" s="1">
+        <v>2</v>
+      </c>
+      <c r="K28" s="2">
+        <v>1</v>
+      </c>
+      <c r="L28" s="1">
+        <v>2428157</v>
+      </c>
+      <c r="M28" s="1">
+        <v>5</v>
+      </c>
+      <c r="N28" s="1">
+        <v>19044517</v>
+      </c>
+      <c r="O28">
         <v>40</v>
       </c>
     </row>
-    <row r="29" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>33</v>
       </c>
@@ -1499,29 +1912,43 @@
         <v>66</v>
       </c>
       <c r="D29" s="1">
+        <v>312393894</v>
+      </c>
+      <c r="E29" s="1">
         <v>116</v>
       </c>
-      <c r="E29" s="1">
-        <v>1</v>
-      </c>
       <c r="F29" s="1">
+        <v>1</v>
+      </c>
+      <c r="G29" s="1">
         <v>6</v>
       </c>
-      <c r="G29" s="1">
+      <c r="H29" s="1">
         <v>3</v>
       </c>
-      <c r="H29" s="1">
-        <v>1</v>
-      </c>
       <c r="I29" s="1">
+        <v>1</v>
+      </c>
+      <c r="J29" s="1">
         <v>19</v>
       </c>
-      <c r="J29">
-        <f t="shared" si="0"/>
+      <c r="K29" s="2">
+        <v>0</v>
+      </c>
+      <c r="L29" s="1">
+        <v>0</v>
+      </c>
+      <c r="M29" s="1">
+        <v>16</v>
+      </c>
+      <c r="N29" s="1">
+        <v>78663862</v>
+      </c>
+      <c r="O29">
         <v>212</v>
       </c>
     </row>
-    <row r="30" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>33</v>
       </c>
@@ -1532,29 +1959,43 @@
         <v>1179</v>
       </c>
       <c r="D30" s="1">
+        <v>19507960594</v>
+      </c>
+      <c r="E30" s="1">
         <v>937</v>
       </c>
-      <c r="E30" s="1">
-        <v>0</v>
-      </c>
       <c r="F30" s="1">
+        <v>0</v>
+      </c>
+      <c r="G30" s="1">
         <v>16</v>
       </c>
-      <c r="G30" s="1">
+      <c r="H30" s="1">
         <v>18</v>
       </c>
-      <c r="H30" s="1">
+      <c r="I30" s="1">
         <v>3</v>
       </c>
-      <c r="I30" s="1">
+      <c r="J30" s="1">
         <v>20</v>
       </c>
-      <c r="J30">
-        <f t="shared" si="0"/>
+      <c r="K30" s="2">
+        <v>8</v>
+      </c>
+      <c r="L30" s="1">
+        <v>0</v>
+      </c>
+      <c r="M30" s="1">
+        <v>102</v>
+      </c>
+      <c r="N30" s="1">
+        <v>511691823</v>
+      </c>
+      <c r="O30">
         <v>2173</v>
       </c>
     </row>
-    <row r="31" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>33</v>
       </c>
@@ -1565,29 +2006,43 @@
         <v>57</v>
       </c>
       <c r="D31" s="1">
+        <v>829114205</v>
+      </c>
+      <c r="E31" s="1">
         <v>83</v>
       </c>
-      <c r="E31" s="1">
-        <v>0</v>
-      </c>
       <c r="F31" s="1">
         <v>0</v>
       </c>
       <c r="G31" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H31" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I31" s="1">
+        <v>2</v>
+      </c>
+      <c r="J31" s="1">
         <v>9</v>
       </c>
-      <c r="J31">
-        <f t="shared" si="0"/>
+      <c r="K31" s="2">
+        <v>2</v>
+      </c>
+      <c r="L31" s="1">
+        <v>0</v>
+      </c>
+      <c r="M31" s="1">
+        <v>12</v>
+      </c>
+      <c r="N31" s="1">
+        <v>42373082</v>
+      </c>
+      <c r="O31">
         <v>152</v>
       </c>
     </row>
-    <row r="32" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>33</v>
       </c>
@@ -1598,29 +2053,43 @@
         <v>35</v>
       </c>
       <c r="D32" s="1">
+        <v>193905389</v>
+      </c>
+      <c r="E32" s="1">
         <v>93</v>
       </c>
-      <c r="E32" s="1">
-        <v>0</v>
-      </c>
       <c r="F32" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G32" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H32" s="1">
+        <v>0</v>
+      </c>
+      <c r="I32" s="1">
         <v>5</v>
       </c>
-      <c r="I32" s="1">
+      <c r="J32" s="1">
         <v>21</v>
       </c>
-      <c r="J32">
-        <f t="shared" si="0"/>
+      <c r="K32" s="2">
+        <v>0</v>
+      </c>
+      <c r="L32" s="1">
+        <v>0</v>
+      </c>
+      <c r="M32" s="1">
+        <v>24</v>
+      </c>
+      <c r="N32" s="1">
+        <v>82496875</v>
+      </c>
+      <c r="O32">
         <v>155</v>
       </c>
     </row>
-    <row r="33" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>33</v>
       </c>
@@ -1631,29 +2100,43 @@
         <v>102</v>
       </c>
       <c r="D33" s="1">
+        <v>322559106</v>
+      </c>
+      <c r="E33" s="1">
         <v>111</v>
       </c>
-      <c r="E33" s="1">
-        <v>0</v>
-      </c>
       <c r="F33" s="1">
+        <v>0</v>
+      </c>
+      <c r="G33" s="1">
         <v>3</v>
       </c>
-      <c r="G33" s="1">
-        <v>1</v>
-      </c>
       <c r="H33" s="1">
         <v>1</v>
       </c>
       <c r="I33" s="1">
+        <v>1</v>
+      </c>
+      <c r="J33" s="1">
         <v>16</v>
       </c>
-      <c r="J33">
-        <f t="shared" si="0"/>
+      <c r="K33" s="2">
+        <v>4</v>
+      </c>
+      <c r="L33" s="1">
+        <v>7384266</v>
+      </c>
+      <c r="M33" s="1">
+        <v>18</v>
+      </c>
+      <c r="N33" s="1">
+        <v>71025967</v>
+      </c>
+      <c r="O33">
         <v>234</v>
       </c>
     </row>
-    <row r="34" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>33</v>
       </c>
@@ -1664,29 +2147,43 @@
         <v>414</v>
       </c>
       <c r="D34" s="1">
+        <v>2898184704</v>
+      </c>
+      <c r="E34" s="1">
         <v>401</v>
       </c>
-      <c r="E34" s="1">
-        <v>0</v>
-      </c>
       <c r="F34" s="1">
+        <v>0</v>
+      </c>
+      <c r="G34" s="1">
         <v>8</v>
-      </c>
-      <c r="G34" s="1">
-        <v>4</v>
       </c>
       <c r="H34" s="1">
         <v>4</v>
       </c>
       <c r="I34" s="1">
+        <v>4</v>
+      </c>
+      <c r="J34" s="1">
         <v>39</v>
       </c>
-      <c r="J34">
-        <f t="shared" si="0"/>
+      <c r="K34" s="2">
+        <v>12</v>
+      </c>
+      <c r="L34" s="1">
+        <v>53076197</v>
+      </c>
+      <c r="M34" s="1">
+        <v>82</v>
+      </c>
+      <c r="N34" s="1">
+        <v>451560125</v>
+      </c>
+      <c r="O34">
         <v>870</v>
       </c>
     </row>
-    <row r="35" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>33</v>
       </c>
@@ -1697,25 +2194,39 @@
         <v>537</v>
       </c>
       <c r="D35" s="1">
+        <v>3052711819</v>
+      </c>
+      <c r="E35" s="1">
         <v>567</v>
       </c>
-      <c r="E35" s="1">
+      <c r="F35" s="1">
         <v>3</v>
       </c>
-      <c r="F35" s="1">
+      <c r="G35" s="1">
         <v>6</v>
       </c>
-      <c r="G35" s="1">
+      <c r="H35" s="1">
         <v>13</v>
       </c>
-      <c r="H35" s="1">
+      <c r="I35" s="1">
         <v>15</v>
       </c>
-      <c r="I35" s="1">
+      <c r="J35" s="1">
         <v>80</v>
       </c>
-      <c r="J35">
-        <f t="shared" si="0"/>
+      <c r="K35" s="2">
+        <v>5</v>
+      </c>
+      <c r="L35" s="1">
+        <v>5019663</v>
+      </c>
+      <c r="M35" s="1">
+        <v>106</v>
+      </c>
+      <c r="N35" s="1">
+        <v>481626674</v>
+      </c>
+      <c r="O35">
         <v>1221</v>
       </c>
     </row>

--- a/data_pencairan1.xlsx
+++ b/data_pencairan1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Downloads\ProjectMap-master\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A096513-4B60-4062-99CF-323635F7E60B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D9A54E8-7680-4EB6-A6E9-2215A793C8CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{54E22A41-8FC8-4C9D-8F0D-924CB0D9AAAD}"/>
   </bookViews>
@@ -140,18 +140,6 @@
     <t>2025-08</t>
   </si>
   <si>
-    <t>D.I. YOGYAKARTA</t>
-  </si>
-  <si>
-    <t>KEP BANGKA BLT</t>
-  </si>
-  <si>
-    <t>KEP RIAU</t>
-  </si>
-  <si>
-    <t>NANGGROE ACEH D</t>
-  </si>
-  <si>
     <t>total_reject_slik</t>
   </si>
   <si>
@@ -186,6 +174,18 @@
   </si>
   <si>
     <t>total_os_loan_created</t>
+  </si>
+  <si>
+    <t>KEPULAUAN BANGKA BELITUNG</t>
+  </si>
+  <si>
+    <t>DAERAH ISTIMEWA YOGYAKARTA</t>
+  </si>
+  <si>
+    <t>KEPULAUAN RIAU</t>
+  </si>
+  <si>
+    <t>ACEH</t>
   </si>
 </sst>
 </file>
@@ -242,14 +242,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -566,8 +569,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7817EA4E-9468-49B4-92AC-3A3CB21195C9}">
   <dimension ref="A1:O35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="M1" sqref="M1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -596,40 +599,40 @@
         <v>32</v>
       </c>
       <c r="D1" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="E1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F1" t="s">
+        <v>35</v>
+      </c>
+      <c r="G1" t="s">
+        <v>36</v>
+      </c>
+      <c r="H1" t="s">
+        <v>37</v>
+      </c>
+      <c r="I1" t="s">
         <v>38</v>
       </c>
-      <c r="F1" t="s">
+      <c r="J1" t="s">
         <v>39</v>
       </c>
-      <c r="G1" t="s">
+      <c r="K1" t="s">
+        <v>41</v>
+      </c>
+      <c r="L1" t="s">
+        <v>42</v>
+      </c>
+      <c r="M1" t="s">
+        <v>43</v>
+      </c>
+      <c r="N1" t="s">
+        <v>44</v>
+      </c>
+      <c r="O1" t="s">
         <v>40</v>
-      </c>
-      <c r="H1" t="s">
-        <v>41</v>
-      </c>
-      <c r="I1" t="s">
-        <v>42</v>
-      </c>
-      <c r="J1" t="s">
-        <v>43</v>
-      </c>
-      <c r="K1" t="s">
-        <v>45</v>
-      </c>
-      <c r="L1" t="s">
-        <v>46</v>
-      </c>
-      <c r="M1" t="s">
-        <v>47</v>
-      </c>
-      <c r="N1" t="s">
-        <v>48</v>
-      </c>
-      <c r="O1" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="2" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -777,8 +780,8 @@
       <c r="A5" t="s">
         <v>33</v>
       </c>
-      <c r="B5" t="s">
-        <v>34</v>
+      <c r="B5" s="4" t="s">
+        <v>47</v>
       </c>
       <c r="C5" s="1">
         <v>21</v>
@@ -1341,8 +1344,8 @@
       <c r="A17" t="s">
         <v>33</v>
       </c>
-      <c r="B17" t="s">
-        <v>35</v>
+      <c r="B17" s="3" t="s">
+        <v>46</v>
       </c>
       <c r="C17" s="1">
         <v>18</v>
@@ -1389,7 +1392,7 @@
         <v>33</v>
       </c>
       <c r="B18" t="s">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="C18" s="1">
         <v>48</v>
@@ -1577,7 +1580,7 @@
         <v>33</v>
       </c>
       <c r="B22" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="C22" s="1">
         <v>4</v>
@@ -1811,7 +1814,7 @@
       <c r="A27" t="s">
         <v>33</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B27" s="5" t="s">
         <v>21</v>
       </c>
       <c r="C27" s="1">

--- a/data_pencairan1.xlsx
+++ b/data_pencairan1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Downloads\ProjectMap-master\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D9A54E8-7680-4EB6-A6E9-2215A793C8CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA368A92-D505-4A45-A80E-A29432197F5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{54E22A41-8FC8-4C9D-8F0D-924CB0D9AAAD}"/>
   </bookViews>
@@ -137,9 +137,6 @@
     <t>total_loan_created</t>
   </si>
   <si>
-    <t>2025-08</t>
-  </si>
-  <si>
     <t>total_reject_slik</t>
   </si>
   <si>
@@ -176,10 +173,13 @@
     <t>total_os_loan_created</t>
   </si>
   <si>
+    <t>2025-09</t>
+  </si>
+  <si>
+    <t>DAERAH ISTIMEWA YOGYAKARTA</t>
+  </si>
+  <si>
     <t>KEPULAUAN BANGKA BELITUNG</t>
-  </si>
-  <si>
-    <t>DAERAH ISTIMEWA YOGYAKARTA</t>
   </si>
   <si>
     <t>KEPULAUAN RIAU</t>
@@ -242,7 +242,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
@@ -250,8 +250,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
@@ -570,7 +568,7 @@
   <dimension ref="A1:O35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -599,57 +597,57 @@
         <v>32</v>
       </c>
       <c r="D1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F1" t="s">
         <v>34</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>35</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>36</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>37</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>38</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
+        <v>40</v>
+      </c>
+      <c r="L1" t="s">
+        <v>41</v>
+      </c>
+      <c r="M1" t="s">
+        <v>42</v>
+      </c>
+      <c r="N1" t="s">
+        <v>43</v>
+      </c>
+      <c r="O1" t="s">
         <v>39</v>
-      </c>
-      <c r="K1" t="s">
-        <v>41</v>
-      </c>
-      <c r="L1" t="s">
-        <v>42</v>
-      </c>
-      <c r="M1" t="s">
-        <v>43</v>
-      </c>
-      <c r="N1" t="s">
-        <v>44</v>
-      </c>
-      <c r="O1" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="2" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>33</v>
-      </c>
-      <c r="B2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="1">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="D2" s="1">
-        <v>122958227</v>
+        <v>104954692</v>
       </c>
       <c r="E2" s="1">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F2" s="1">
         <v>0</v>
@@ -661,10 +659,10 @@
         <v>0</v>
       </c>
       <c r="I2" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J2" s="1">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="K2" s="2">
         <v>1</v>
@@ -673,10 +671,10 @@
         <v>5161097</v>
       </c>
       <c r="M2" s="1">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="N2" s="1">
-        <v>42508835</v>
+        <v>33586541</v>
       </c>
       <c r="O2">
         <v>78</v>
@@ -684,46 +682,46 @@
     </row>
     <row r="3" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>33</v>
-      </c>
-      <c r="B3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C3" s="1">
-        <v>202</v>
+        <v>171</v>
       </c>
       <c r="D3" s="1">
-        <v>1033976033</v>
+        <v>812319086</v>
       </c>
       <c r="E3" s="1">
-        <v>646</v>
+        <v>697</v>
       </c>
       <c r="F3" s="1">
+        <v>3</v>
+      </c>
+      <c r="G3" s="1">
         <v>4</v>
       </c>
-      <c r="G3" s="1">
-        <v>6</v>
-      </c>
       <c r="H3" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I3" s="1">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="J3" s="1">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="K3" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="L3" s="1">
-        <v>0</v>
+        <v>836668</v>
       </c>
       <c r="M3" s="1">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="N3" s="1">
-        <v>283377041</v>
+        <v>217683877</v>
       </c>
       <c r="O3">
         <v>924</v>
@@ -731,46 +729,46 @@
     </row>
     <row r="4" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="1">
         <v>33</v>
       </c>
-      <c r="B4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C4" s="1">
-        <v>37</v>
-      </c>
       <c r="D4" s="1">
-        <v>245825817</v>
+        <v>229857879</v>
       </c>
       <c r="E4" s="1">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="F4" s="1">
         <v>0</v>
       </c>
       <c r="G4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H4" s="1">
         <v>0</v>
       </c>
       <c r="I4" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J4" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="K4" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L4" s="1">
         <v>0</v>
       </c>
       <c r="M4" s="1">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="N4" s="1">
-        <v>24808253</v>
+        <v>64697307</v>
       </c>
       <c r="O4">
         <v>71</v>
@@ -778,46 +776,46 @@
     </row>
     <row r="5" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>33</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>47</v>
+        <v>45</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>46</v>
       </c>
       <c r="C5" s="1">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D5" s="1">
-        <v>48553417</v>
+        <v>68028074</v>
       </c>
       <c r="E5" s="1">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="F5" s="1">
+        <v>1</v>
+      </c>
+      <c r="G5" s="1">
+        <v>1</v>
+      </c>
+      <c r="H5" s="1">
+        <v>0</v>
+      </c>
+      <c r="I5" s="1">
         <v>2</v>
       </c>
-      <c r="G5" s="1">
+      <c r="J5" s="1">
+        <v>17</v>
+      </c>
+      <c r="K5" s="2">
+        <v>0</v>
+      </c>
+      <c r="L5" s="1">
+        <v>0</v>
+      </c>
+      <c r="M5" s="1">
         <v>3</v>
       </c>
-      <c r="H5" s="1">
-        <v>0</v>
-      </c>
-      <c r="I5" s="1">
-        <v>0</v>
-      </c>
-      <c r="J5" s="1">
-        <v>25</v>
-      </c>
-      <c r="K5" s="2">
-        <v>0</v>
-      </c>
-      <c r="L5" s="1">
-        <v>0</v>
-      </c>
-      <c r="M5" s="1">
-        <v>10</v>
-      </c>
       <c r="N5" s="1">
-        <v>27357637</v>
+        <v>3087792</v>
       </c>
       <c r="O5">
         <v>95</v>
@@ -825,46 +823,46 @@
     </row>
     <row r="6" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>33</v>
-      </c>
-      <c r="B6" t="s">
+        <v>45</v>
+      </c>
+      <c r="B6" s="3" t="s">
         <v>3</v>
       </c>
       <c r="C6" s="1">
-        <v>375</v>
+        <v>334</v>
       </c>
       <c r="D6" s="1">
-        <v>2065813443</v>
+        <v>1744912606</v>
       </c>
       <c r="E6" s="1">
-        <v>1352</v>
+        <v>1334</v>
       </c>
       <c r="F6" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G6" s="1">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H6" s="1">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="I6" s="1">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="J6" s="1">
-        <v>181</v>
+        <v>169</v>
       </c>
       <c r="K6" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L6" s="1">
-        <v>1206871</v>
+        <v>12986697</v>
       </c>
       <c r="M6" s="1">
-        <v>109</v>
+        <v>94</v>
       </c>
       <c r="N6" s="1">
-        <v>463190604</v>
+        <v>483162466</v>
       </c>
       <c r="O6">
         <v>1954</v>
@@ -872,46 +870,46 @@
     </row>
     <row r="7" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>33</v>
-      </c>
-      <c r="B7" t="s">
+        <v>45</v>
+      </c>
+      <c r="B7" s="3" t="s">
         <v>4</v>
       </c>
       <c r="C7" s="1">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="D7" s="1">
-        <v>241760698</v>
+        <v>323038416</v>
       </c>
       <c r="E7" s="1">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F7" s="1">
         <v>0</v>
       </c>
       <c r="G7" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H7" s="1">
         <v>0</v>
       </c>
       <c r="I7" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J7" s="1">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="K7" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L7" s="1">
         <v>0</v>
       </c>
       <c r="M7" s="1">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="N7" s="1">
-        <v>62716344</v>
+        <v>57135109</v>
       </c>
       <c r="O7">
         <v>118</v>
@@ -919,46 +917,46 @@
     </row>
     <row r="8" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>33</v>
-      </c>
-      <c r="B8" t="s">
+        <v>45</v>
+      </c>
+      <c r="B8" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C8" s="1">
-        <v>127</v>
+        <v>96</v>
       </c>
       <c r="D8" s="1">
-        <v>798060460</v>
+        <v>698244230</v>
       </c>
       <c r="E8" s="1">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="F8" s="1">
         <v>1</v>
       </c>
       <c r="G8" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H8" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I8" s="1">
         <v>3</v>
       </c>
       <c r="J8" s="1">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="K8" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L8" s="1">
-        <v>8260197</v>
+        <v>9023030</v>
       </c>
       <c r="M8" s="1">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="N8" s="1">
-        <v>78871770</v>
+        <v>42270668</v>
       </c>
       <c r="O8">
         <v>275</v>
@@ -966,46 +964,46 @@
     </row>
     <row r="9" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>33</v>
-      </c>
-      <c r="B9" t="s">
+        <v>45</v>
+      </c>
+      <c r="B9" s="3" t="s">
         <v>6</v>
       </c>
       <c r="C9" s="1">
-        <v>438</v>
+        <v>340</v>
       </c>
       <c r="D9" s="1">
-        <v>1940832600</v>
+        <v>1736624071</v>
       </c>
       <c r="E9" s="1">
-        <v>1162</v>
+        <v>1150</v>
       </c>
       <c r="F9" s="1">
         <v>4</v>
       </c>
       <c r="G9" s="1">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H9" s="1">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="I9" s="1">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="J9" s="1">
-        <v>148</v>
+        <v>135</v>
       </c>
       <c r="K9" s="2">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="L9" s="1">
-        <v>7920898</v>
+        <v>7055653</v>
       </c>
       <c r="M9" s="1">
-        <v>103</v>
+        <v>85</v>
       </c>
       <c r="N9" s="1">
-        <v>407044078</v>
+        <v>348684636</v>
       </c>
       <c r="O9">
         <v>1801</v>
@@ -1013,46 +1011,46 @@
     </row>
     <row r="10" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>33</v>
-      </c>
-      <c r="B10" t="s">
+        <v>45</v>
+      </c>
+      <c r="B10" s="3" t="s">
         <v>7</v>
       </c>
       <c r="C10" s="1">
-        <v>227</v>
+        <v>246</v>
       </c>
       <c r="D10" s="1">
-        <v>1084347574</v>
+        <v>1152489926</v>
       </c>
       <c r="E10" s="1">
-        <v>347</v>
+        <v>367</v>
       </c>
       <c r="F10" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G10" s="1">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="H10" s="1">
+        <v>2</v>
+      </c>
+      <c r="I10" s="1">
         <v>5</v>
       </c>
-      <c r="I10" s="1">
-        <v>10</v>
-      </c>
       <c r="J10" s="1">
-        <v>97</v>
+        <v>69</v>
       </c>
       <c r="K10" s="2">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="L10" s="1">
-        <v>3889494</v>
+        <v>24863089</v>
       </c>
       <c r="M10" s="1">
-        <v>57</v>
+        <v>43</v>
       </c>
       <c r="N10" s="1">
-        <v>208246537</v>
+        <v>142314094</v>
       </c>
       <c r="O10">
         <v>695</v>
@@ -1060,46 +1058,46 @@
     </row>
     <row r="11" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>33</v>
-      </c>
-      <c r="B11" t="s">
+        <v>45</v>
+      </c>
+      <c r="B11" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C11" s="1">
-        <v>324</v>
+        <v>291</v>
       </c>
       <c r="D11" s="1">
-        <v>1412667099</v>
+        <v>1341086913</v>
       </c>
       <c r="E11" s="1">
-        <v>521</v>
+        <v>534</v>
       </c>
       <c r="F11" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G11" s="1">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H11" s="1">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="I11" s="1">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="J11" s="1">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="K11" s="2">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="L11" s="1">
-        <v>30248826</v>
+        <v>24953155</v>
       </c>
       <c r="M11" s="1">
-        <v>103</v>
+        <v>73</v>
       </c>
       <c r="N11" s="1">
-        <v>392072814</v>
+        <v>255520085</v>
       </c>
       <c r="O11">
         <v>969</v>
@@ -1107,46 +1105,46 @@
     </row>
     <row r="12" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>33</v>
-      </c>
-      <c r="B12" t="s">
+        <v>45</v>
+      </c>
+      <c r="B12" s="3" t="s">
         <v>9</v>
       </c>
       <c r="C12" s="1">
-        <v>239</v>
+        <v>182</v>
       </c>
       <c r="D12" s="1">
-        <v>2379162969</v>
+        <v>1720174865</v>
       </c>
       <c r="E12" s="1">
-        <v>141</v>
+        <v>160</v>
       </c>
       <c r="F12" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G12" s="1">
+        <v>7</v>
+      </c>
+      <c r="H12" s="1">
         <v>3</v>
       </c>
-      <c r="H12" s="1">
-        <v>4</v>
-      </c>
       <c r="I12" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J12" s="1">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="K12" s="2">
         <v>5</v>
       </c>
       <c r="L12" s="1">
-        <v>22478328</v>
+        <v>34059124</v>
       </c>
       <c r="M12" s="1">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="N12" s="1">
-        <v>160893265</v>
+        <v>200304857</v>
       </c>
       <c r="O12">
         <v>413</v>
@@ -1154,46 +1152,46 @@
     </row>
     <row r="13" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>33</v>
-      </c>
-      <c r="B13" t="s">
+        <v>45</v>
+      </c>
+      <c r="B13" s="3" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="1">
-        <v>58</v>
+        <v>41</v>
       </c>
       <c r="D13" s="1">
-        <v>351727958</v>
+        <v>228849072</v>
       </c>
       <c r="E13" s="1">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="F13" s="1">
         <v>0</v>
       </c>
       <c r="G13" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H13" s="1">
         <v>2</v>
       </c>
       <c r="I13" s="1">
+        <v>3</v>
+      </c>
+      <c r="J13" s="1">
+        <v>20</v>
+      </c>
+      <c r="K13" s="2">
         <v>2</v>
       </c>
-      <c r="J13" s="1">
-        <v>22</v>
-      </c>
-      <c r="K13" s="2">
-        <v>1</v>
-      </c>
       <c r="L13" s="1">
         <v>0</v>
       </c>
       <c r="M13" s="1">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="N13" s="1">
-        <v>35038037</v>
+        <v>3848023</v>
       </c>
       <c r="O13">
         <v>186</v>
@@ -1201,46 +1199,46 @@
     </row>
     <row r="14" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>33</v>
-      </c>
-      <c r="B14" t="s">
+        <v>45</v>
+      </c>
+      <c r="B14" s="3" t="s">
         <v>11</v>
       </c>
       <c r="C14" s="1">
-        <v>238</v>
+        <v>339</v>
       </c>
       <c r="D14" s="1">
-        <v>2669443365</v>
+        <v>4061227671</v>
       </c>
       <c r="E14" s="1">
-        <v>193</v>
+        <v>220</v>
       </c>
       <c r="F14" s="1">
         <v>1</v>
       </c>
       <c r="G14" s="1">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="H14" s="1">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="I14" s="1">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="J14" s="1">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="K14" s="2">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="L14" s="1">
-        <v>43720371</v>
+        <v>16665112</v>
       </c>
       <c r="M14" s="1">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="N14" s="1">
-        <v>80389141</v>
+        <v>204888753</v>
       </c>
       <c r="O14">
         <v>468</v>
@@ -1248,46 +1246,46 @@
     </row>
     <row r="15" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>33</v>
-      </c>
-      <c r="B15" t="s">
+        <v>45</v>
+      </c>
+      <c r="B15" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C15" s="1">
-        <v>1052</v>
+        <v>995</v>
       </c>
       <c r="D15" s="1">
-        <v>12938725449</v>
+        <v>12171991965</v>
       </c>
       <c r="E15" s="1">
-        <v>560</v>
+        <v>526</v>
       </c>
       <c r="F15" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G15" s="1">
         <v>24</v>
       </c>
       <c r="H15" s="1">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I15" s="1">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="J15" s="1">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="K15" s="2">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="L15" s="1">
-        <v>70551341</v>
+        <v>40951579</v>
       </c>
       <c r="M15" s="1">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="N15" s="1">
-        <v>845159294</v>
+        <v>748382905</v>
       </c>
       <c r="O15">
         <v>1685</v>
@@ -1295,46 +1293,46 @@
     </row>
     <row r="16" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>33</v>
-      </c>
-      <c r="B16" t="s">
+        <v>45</v>
+      </c>
+      <c r="B16" s="3" t="s">
         <v>13</v>
       </c>
       <c r="C16" s="1">
-        <v>135</v>
+        <v>116</v>
       </c>
       <c r="D16" s="1">
-        <v>1307908241</v>
+        <v>1304780742</v>
       </c>
       <c r="E16" s="1">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="F16" s="1">
         <v>0</v>
       </c>
       <c r="G16" s="1">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="H16" s="1">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="I16" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J16" s="1">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="K16" s="2">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="L16" s="1">
-        <v>52178108</v>
+        <v>12485384</v>
       </c>
       <c r="M16" s="1">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="N16" s="1">
-        <v>98343904</v>
+        <v>65096551</v>
       </c>
       <c r="O16">
         <v>217</v>
@@ -1342,16 +1340,16 @@
     </row>
     <row r="17" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C17" s="1">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D17" s="1">
-        <v>118025039</v>
+        <v>94401069</v>
       </c>
       <c r="E17" s="1">
         <v>44</v>
@@ -1360,28 +1358,28 @@
         <v>0</v>
       </c>
       <c r="G17" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H17" s="1">
         <v>0</v>
       </c>
       <c r="I17" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J17" s="1">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="K17" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L17" s="1">
         <v>0</v>
       </c>
       <c r="M17" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N17" s="1">
-        <v>25174408</v>
+        <v>17218808</v>
       </c>
       <c r="O17">
         <v>71</v>
@@ -1389,46 +1387,46 @@
     </row>
     <row r="18" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
+        <v>45</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C18" s="1">
         <v>33</v>
       </c>
-      <c r="B18" t="s">
-        <v>48</v>
-      </c>
-      <c r="C18" s="1">
-        <v>48</v>
-      </c>
       <c r="D18" s="1">
-        <v>239749764</v>
+        <v>167278145</v>
       </c>
       <c r="E18" s="1">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F18" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G18" s="1">
         <v>0</v>
       </c>
       <c r="H18" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I18" s="1">
         <v>1</v>
       </c>
       <c r="J18" s="1">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="K18" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L18" s="1">
-        <v>7083716</v>
+        <v>0</v>
       </c>
       <c r="M18" s="1">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="N18" s="1">
-        <v>30962186</v>
+        <v>33148672</v>
       </c>
       <c r="O18">
         <v>143</v>
@@ -1436,31 +1434,31 @@
     </row>
     <row r="19" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>33</v>
-      </c>
-      <c r="B19" t="s">
+        <v>45</v>
+      </c>
+      <c r="B19" s="3" t="s">
         <v>14</v>
       </c>
       <c r="C19" s="1">
-        <v>72</v>
+        <v>59</v>
       </c>
       <c r="D19" s="1">
-        <v>413561371</v>
+        <v>300600332</v>
       </c>
       <c r="E19" s="1">
-        <v>118</v>
+        <v>107</v>
       </c>
       <c r="F19" s="1">
         <v>1</v>
       </c>
       <c r="G19" s="1">
+        <v>0</v>
+      </c>
+      <c r="H19" s="1">
         <v>3</v>
       </c>
-      <c r="H19" s="1">
-        <v>0</v>
-      </c>
       <c r="I19" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J19" s="1">
         <v>21</v>
@@ -1472,10 +1470,10 @@
         <v>0</v>
       </c>
       <c r="M19" s="1">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="N19" s="1">
-        <v>53371741</v>
+        <v>48518530</v>
       </c>
       <c r="O19">
         <v>218</v>
@@ -1483,16 +1481,16 @@
     </row>
     <row r="20" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>33</v>
-      </c>
-      <c r="B20" t="s">
+        <v>45</v>
+      </c>
+      <c r="B20" s="3" t="s">
         <v>15</v>
       </c>
       <c r="C20" s="1">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="D20" s="1">
-        <v>159069081</v>
+        <v>102266240</v>
       </c>
       <c r="E20" s="1">
         <v>29</v>
@@ -1504,13 +1502,13 @@
         <v>1</v>
       </c>
       <c r="H20" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I20" s="1">
         <v>0</v>
       </c>
       <c r="J20" s="1">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="K20" s="2">
         <v>0</v>
@@ -1519,10 +1517,10 @@
         <v>0</v>
       </c>
       <c r="M20" s="1">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="N20" s="1">
-        <v>26836821</v>
+        <v>1586198</v>
       </c>
       <c r="O20">
         <v>61</v>
@@ -1530,46 +1528,46 @@
     </row>
     <row r="21" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>33</v>
-      </c>
-      <c r="B21" t="s">
+        <v>45</v>
+      </c>
+      <c r="B21" s="3" t="s">
         <v>16</v>
       </c>
       <c r="C21" s="1">
-        <v>1974</v>
+        <v>1578</v>
       </c>
       <c r="D21" s="1">
-        <v>40739516773</v>
+        <v>34078647276</v>
       </c>
       <c r="E21" s="1">
-        <v>1190</v>
+        <v>1007</v>
       </c>
       <c r="F21" s="1">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G21" s="1">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="H21" s="1">
-        <v>49</v>
+        <v>102</v>
       </c>
       <c r="I21" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J21" s="1">
-        <v>88</v>
+        <v>67</v>
       </c>
       <c r="K21" s="2">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="L21" s="1">
-        <v>17172803</v>
+        <v>38154477</v>
       </c>
       <c r="M21" s="1">
-        <v>92</v>
+        <v>78</v>
       </c>
       <c r="N21" s="1">
-        <v>259505332</v>
+        <v>310155439</v>
       </c>
       <c r="O21">
         <v>3357</v>
@@ -1577,19 +1575,19 @@
     </row>
     <row r="22" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>33</v>
-      </c>
-      <c r="B22" t="s">
+        <v>45</v>
+      </c>
+      <c r="B22" s="3" t="s">
         <v>49</v>
       </c>
       <c r="C22" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D22" s="1">
-        <v>14439838</v>
+        <v>3000000</v>
       </c>
       <c r="E22" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F22" s="1">
         <v>0</v>
@@ -1604,7 +1602,7 @@
         <v>0</v>
       </c>
       <c r="J22" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K22" s="2">
         <v>0</v>
@@ -1613,10 +1611,10 @@
         <v>0</v>
       </c>
       <c r="M22" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N22" s="1">
-        <v>7112223</v>
+        <v>5594055</v>
       </c>
       <c r="O22">
         <v>6</v>
@@ -1624,34 +1622,34 @@
     </row>
     <row r="23" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>33</v>
-      </c>
-      <c r="B23" t="s">
+        <v>45</v>
+      </c>
+      <c r="B23" s="3" t="s">
         <v>17</v>
       </c>
       <c r="C23" s="1">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="D23" s="1">
-        <v>87419407</v>
+        <v>56713518</v>
       </c>
       <c r="E23" s="1">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="F23" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G23" s="1">
         <v>0</v>
       </c>
       <c r="H23" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I23" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J23" s="1">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="K23" s="2">
         <v>0</v>
@@ -1660,10 +1658,10 @@
         <v>0</v>
       </c>
       <c r="M23" s="1">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="N23" s="1">
-        <v>6694028</v>
+        <v>47127971</v>
       </c>
       <c r="O23">
         <v>98</v>
@@ -1671,46 +1669,46 @@
     </row>
     <row r="24" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>33</v>
-      </c>
-      <c r="B24" t="s">
+        <v>45</v>
+      </c>
+      <c r="B24" s="3" t="s">
         <v>18</v>
       </c>
       <c r="C24" s="1">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="D24" s="1">
-        <v>234662644</v>
+        <v>154382385</v>
       </c>
       <c r="E24" s="1">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="F24" s="1">
+        <v>1</v>
+      </c>
+      <c r="G24" s="1">
+        <v>0</v>
+      </c>
+      <c r="H24" s="1">
+        <v>0</v>
+      </c>
+      <c r="I24" s="1">
         <v>2</v>
       </c>
-      <c r="G24" s="1">
-        <v>2</v>
-      </c>
-      <c r="H24" s="1">
-        <v>1</v>
-      </c>
-      <c r="I24" s="1">
-        <v>3</v>
-      </c>
       <c r="J24" s="1">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="K24" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L24" s="1">
-        <v>0</v>
+        <v>6616254</v>
       </c>
       <c r="M24" s="1">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="N24" s="1">
-        <v>115605055</v>
+        <v>71199370</v>
       </c>
       <c r="O24">
         <v>119</v>
@@ -1718,46 +1716,46 @@
     </row>
     <row r="25" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>33</v>
-      </c>
-      <c r="B25" t="s">
+        <v>45</v>
+      </c>
+      <c r="B25" s="3" t="s">
         <v>19</v>
       </c>
       <c r="C25" s="1">
-        <v>134</v>
+        <v>146</v>
       </c>
       <c r="D25" s="1">
-        <v>1631384628</v>
+        <v>1790883032</v>
       </c>
       <c r="E25" s="1">
-        <v>84</v>
+        <v>95</v>
       </c>
       <c r="F25" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G25" s="1">
         <v>2</v>
       </c>
       <c r="H25" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I25" s="1">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="J25" s="1">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="K25" s="2">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="L25" s="1">
-        <v>52809193</v>
+        <v>10770236</v>
       </c>
       <c r="M25" s="1">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="N25" s="1">
-        <v>155627408</v>
+        <v>191389403</v>
       </c>
       <c r="O25">
         <v>249</v>
@@ -1765,46 +1763,46 @@
     </row>
     <row r="26" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>33</v>
-      </c>
-      <c r="B26" t="s">
+        <v>45</v>
+      </c>
+      <c r="B26" s="3" t="s">
         <v>20</v>
       </c>
       <c r="C26" s="1">
-        <v>119</v>
+        <v>77</v>
       </c>
       <c r="D26" s="1">
-        <v>593260907</v>
+        <v>397747619</v>
       </c>
       <c r="E26" s="1">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="F26" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G26" s="1">
         <v>0</v>
       </c>
       <c r="H26" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I26" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J26" s="1">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="K26" s="2">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="L26" s="1">
-        <v>17212357</v>
+        <v>2300202</v>
       </c>
       <c r="M26" s="1">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="N26" s="1">
-        <v>31712368</v>
+        <v>26100268</v>
       </c>
       <c r="O26">
         <v>178</v>
@@ -1812,46 +1810,46 @@
     </row>
     <row r="27" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>33</v>
-      </c>
-      <c r="B27" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="B27" s="3" t="s">
         <v>21</v>
       </c>
       <c r="C27" s="1">
-        <v>700</v>
+        <v>586</v>
       </c>
       <c r="D27" s="1">
-        <v>5447384727</v>
+        <v>4682102109</v>
       </c>
       <c r="E27" s="1">
-        <v>633</v>
+        <v>600</v>
       </c>
       <c r="F27" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G27" s="1">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="H27" s="1">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="I27" s="1">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="J27" s="1">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="K27" s="2">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="L27" s="1">
-        <v>40275683</v>
+        <v>50939255</v>
       </c>
       <c r="M27" s="1">
-        <v>127</v>
+        <v>115</v>
       </c>
       <c r="N27" s="1">
-        <v>740421775</v>
+        <v>634226478</v>
       </c>
       <c r="O27">
         <v>1434</v>
@@ -1859,19 +1857,19 @@
     </row>
     <row r="28" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>33</v>
-      </c>
-      <c r="B28" t="s">
+        <v>45</v>
+      </c>
+      <c r="B28" s="3" t="s">
         <v>22</v>
       </c>
       <c r="C28" s="1">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D28" s="1">
-        <v>82961187</v>
+        <v>66170173</v>
       </c>
       <c r="E28" s="1">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="F28" s="1">
         <v>1</v>
@@ -1886,19 +1884,19 @@
         <v>0</v>
       </c>
       <c r="J28" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K28" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L28" s="1">
-        <v>2428157</v>
+        <v>0</v>
       </c>
       <c r="M28" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N28" s="1">
-        <v>19044517</v>
+        <v>7605194</v>
       </c>
       <c r="O28">
         <v>40</v>
@@ -1906,31 +1904,31 @@
     </row>
     <row r="29" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>33</v>
-      </c>
-      <c r="B29" t="s">
+        <v>45</v>
+      </c>
+      <c r="B29" s="3" t="s">
         <v>23</v>
       </c>
       <c r="C29" s="1">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="D29" s="1">
-        <v>312393894</v>
+        <v>242518155</v>
       </c>
       <c r="E29" s="1">
-        <v>116</v>
+        <v>106</v>
       </c>
       <c r="F29" s="1">
         <v>1</v>
       </c>
       <c r="G29" s="1">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="H29" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I29" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J29" s="1">
         <v>19</v>
@@ -1942,10 +1940,10 @@
         <v>0</v>
       </c>
       <c r="M29" s="1">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="N29" s="1">
-        <v>78663862</v>
+        <v>66399229</v>
       </c>
       <c r="O29">
         <v>212</v>
@@ -1953,19 +1951,19 @@
     </row>
     <row r="30" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>33</v>
-      </c>
-      <c r="B30" t="s">
+        <v>45</v>
+      </c>
+      <c r="B30" s="3" t="s">
         <v>24</v>
       </c>
       <c r="C30" s="1">
-        <v>1179</v>
+        <v>1073</v>
       </c>
       <c r="D30" s="1">
-        <v>19507960594</v>
+        <v>17072424551</v>
       </c>
       <c r="E30" s="1">
-        <v>937</v>
+        <v>930</v>
       </c>
       <c r="F30" s="1">
         <v>0</v>
@@ -1977,22 +1975,22 @@
         <v>18</v>
       </c>
       <c r="I30" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J30" s="1">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="K30" s="2">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="L30" s="1">
-        <v>0</v>
+        <v>19844658</v>
       </c>
       <c r="M30" s="1">
-        <v>102</v>
+        <v>72</v>
       </c>
       <c r="N30" s="1">
-        <v>511691823</v>
+        <v>467628981</v>
       </c>
       <c r="O30">
         <v>2173</v>
@@ -2000,46 +1998,46 @@
     </row>
     <row r="31" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>33</v>
-      </c>
-      <c r="B31" t="s">
+        <v>45</v>
+      </c>
+      <c r="B31" s="3" t="s">
         <v>25</v>
       </c>
       <c r="C31" s="1">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="D31" s="1">
-        <v>829114205</v>
+        <v>628488961</v>
       </c>
       <c r="E31" s="1">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="F31" s="1">
         <v>0</v>
       </c>
       <c r="G31" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H31" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I31" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J31" s="1">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="K31" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L31" s="1">
         <v>0</v>
       </c>
       <c r="M31" s="1">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="N31" s="1">
-        <v>42373082</v>
+        <v>55193952</v>
       </c>
       <c r="O31">
         <v>152</v>
@@ -2047,46 +2045,46 @@
     </row>
     <row r="32" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>33</v>
-      </c>
-      <c r="B32" t="s">
+        <v>45</v>
+      </c>
+      <c r="B32" s="3" t="s">
         <v>26</v>
       </c>
       <c r="C32" s="1">
-        <v>35</v>
+        <v>52</v>
       </c>
       <c r="D32" s="1">
-        <v>193905389</v>
+        <v>242499358</v>
       </c>
       <c r="E32" s="1">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="F32" s="1">
         <v>0</v>
       </c>
       <c r="G32" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H32" s="1">
         <v>0</v>
       </c>
       <c r="I32" s="1">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J32" s="1">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="K32" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L32" s="1">
-        <v>0</v>
+        <v>5744409</v>
       </c>
       <c r="M32" s="1">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="N32" s="1">
-        <v>82496875</v>
+        <v>63493449</v>
       </c>
       <c r="O32">
         <v>155</v>
@@ -2094,46 +2092,46 @@
     </row>
     <row r="33" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>33</v>
-      </c>
-      <c r="B33" t="s">
+        <v>45</v>
+      </c>
+      <c r="B33" s="3" t="s">
         <v>27</v>
       </c>
       <c r="C33" s="1">
-        <v>102</v>
+        <v>69</v>
       </c>
       <c r="D33" s="1">
-        <v>322559106</v>
+        <v>237998993</v>
       </c>
       <c r="E33" s="1">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="F33" s="1">
         <v>0</v>
       </c>
       <c r="G33" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H33" s="1">
         <v>1</v>
       </c>
       <c r="I33" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J33" s="1">
         <v>16</v>
       </c>
       <c r="K33" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L33" s="1">
-        <v>7384266</v>
+        <v>13981115</v>
       </c>
       <c r="M33" s="1">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="N33" s="1">
-        <v>71025967</v>
+        <v>37876543</v>
       </c>
       <c r="O33">
         <v>234</v>
@@ -2141,46 +2139,46 @@
     </row>
     <row r="34" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>33</v>
-      </c>
-      <c r="B34" t="s">
+        <v>45</v>
+      </c>
+      <c r="B34" s="3" t="s">
         <v>28</v>
       </c>
       <c r="C34" s="1">
-        <v>414</v>
+        <v>336</v>
       </c>
       <c r="D34" s="1">
-        <v>2898184704</v>
+        <v>2558966052</v>
       </c>
       <c r="E34" s="1">
-        <v>401</v>
+        <v>396</v>
       </c>
       <c r="F34" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G34" s="1">
+        <v>6</v>
+      </c>
+      <c r="H34" s="1">
         <v>8</v>
       </c>
-      <c r="H34" s="1">
+      <c r="I34" s="1">
+        <v>7</v>
+      </c>
+      <c r="J34" s="1">
+        <v>29</v>
+      </c>
+      <c r="K34" s="2">
         <v>4</v>
       </c>
-      <c r="I34" s="1">
-        <v>4</v>
-      </c>
-      <c r="J34" s="1">
-        <v>39</v>
-      </c>
-      <c r="K34" s="2">
-        <v>12</v>
-      </c>
       <c r="L34" s="1">
-        <v>53076197</v>
+        <v>17670882</v>
       </c>
       <c r="M34" s="1">
-        <v>82</v>
+        <v>54</v>
       </c>
       <c r="N34" s="1">
-        <v>451560125</v>
+        <v>303129762</v>
       </c>
       <c r="O34">
         <v>870</v>
@@ -2188,46 +2186,46 @@
     </row>
     <row r="35" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>33</v>
-      </c>
-      <c r="B35" t="s">
+        <v>45</v>
+      </c>
+      <c r="B35" s="3" t="s">
         <v>29</v>
       </c>
       <c r="C35" s="1">
-        <v>537</v>
+        <v>552</v>
       </c>
       <c r="D35" s="1">
-        <v>3052711819</v>
+        <v>3493037239</v>
       </c>
       <c r="E35" s="1">
-        <v>567</v>
+        <v>525</v>
       </c>
       <c r="F35" s="1">
         <v>3</v>
       </c>
       <c r="G35" s="1">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="H35" s="1">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I35" s="1">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J35" s="1">
-        <v>80</v>
+        <v>67</v>
       </c>
       <c r="K35" s="2">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="L35" s="1">
-        <v>5019663</v>
+        <v>22619253</v>
       </c>
       <c r="M35" s="1">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="N35" s="1">
-        <v>481626674</v>
+        <v>574860177</v>
       </c>
       <c r="O35">
         <v>1221</v>

--- a/data_pencairan1.xlsx
+++ b/data_pencairan1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Downloads\ProjectMap-master\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A106BF45-3A13-4E46-861A-D7FAD0997197}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{801623D7-FD39-455E-BE3B-0842E88036A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{54E22A41-8FC8-4C9D-8F0D-924CB0D9AAAD}"/>
   </bookViews>
@@ -173,6 +173,9 @@
     <t>KEP RIAU</t>
   </si>
   <si>
+    <t>NANGGROE ACEH D</t>
+  </si>
+  <si>
     <t>total_os_loan_created</t>
   </si>
   <si>
@@ -180,9 +183,6 @@
   </si>
   <si>
     <t>DAERAH ISTIMEWA YOGYAKARTA</t>
-  </si>
-  <si>
-    <t>aceh</t>
   </si>
 </sst>
 </file>
@@ -567,7 +567,7 @@
   <dimension ref="A1:N35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -596,7 +596,7 @@
         <v>32</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>33</v>
@@ -766,7 +766,7 @@
         <v>43</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C5" s="2">
         <v>10</v>
@@ -1294,7 +1294,7 @@
         <v>43</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C17" s="2">
         <v>7</v>
@@ -1514,7 +1514,7 @@
         <v>43</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C22" s="2">
         <v>0</v>

--- a/data_pencairan1.xlsx
+++ b/data_pencairan1.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Downloads\ProjectMap-master\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{801623D7-FD39-455E-BE3B-0842E88036A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8390CC0A-6B3A-4F02-9AAF-A0E900DE1E00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{54E22A41-8FC8-4C9D-8F0D-924CB0D9AAAD}"/>
   </bookViews>
@@ -567,7 +567,7 @@
   <dimension ref="A1:N35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
